--- a/build/temp/pages/StructureDefinition-plannet-Network.xlsx
+++ b/build/temp/pages/StructureDefinition-plannet-Network.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="406">
   <si>
     <t>Path</t>
   </si>
@@ -630,6 +630,9 @@
   </si>
   <si>
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>No equivalent in HL7 v2</t>
@@ -665,6 +668,7 @@
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/organization-type"/&gt;
     &lt;code value="pay"/&gt;
+    &lt;display value="payer"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -3751,7 +3755,7 @@
         <v>40</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>40</v>
@@ -3805,21 +3809,21 @@
         <v>61</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3845,16 +3849,16 @@
         <v>144</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3864,7 +3868,7 @@
         <v>40</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>40</v>
@@ -3879,13 +3883,13 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>40</v>
@@ -3903,7 +3907,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3918,21 +3922,21 @@
         <v>61</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>127</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3958,16 +3962,16 @@
         <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -4016,7 +4020,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4031,13 +4035,13 @@
         <v>61</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>40</v>
@@ -4045,7 +4049,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4071,16 +4075,16 @@
         <v>51</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -4129,7 +4133,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4147,7 +4151,7 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -4158,7 +4162,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4181,19 +4185,19 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4242,7 +4246,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4251,19 +4255,19 @@
         <v>42</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
@@ -4271,7 +4275,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4294,19 +4298,19 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4355,7 +4359,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4364,19 +4368,19 @@
         <v>42</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
@@ -4384,7 +4388,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4407,17 +4411,17 @@
         <v>50</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4466,7 +4470,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4481,10 +4485,10 @@
         <v>61</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>127</v>
@@ -4495,7 +4499,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4518,19 +4522,19 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4579,7 +4583,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4597,7 +4601,7 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4608,7 +4612,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4717,7 +4721,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4828,11 +4832,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4854,10 +4858,10 @@
         <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>110</v>
@@ -4912,7 +4916,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4941,7 +4945,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4967,14 +4971,14 @@
         <v>144</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -5002,10 +5006,10 @@
         <v>149</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
@@ -5023,7 +5027,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5041,7 +5045,7 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -5052,7 +5056,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5075,17 +5079,17 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -5134,7 +5138,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5149,10 +5153,10 @@
         <v>61</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
@@ -5163,7 +5167,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5272,7 +5276,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5383,7 +5387,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5409,16 +5413,16 @@
         <v>69</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5446,10 +5450,10 @@
         <v>138</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
@@ -5467,7 +5471,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5482,13 +5486,13 @@
         <v>61</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5496,7 +5500,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5522,16 +5526,16 @@
         <v>51</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5580,7 +5584,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5595,10 +5599,10 @@
         <v>61</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
@@ -5609,11 +5613,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5635,13 +5639,13 @@
         <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5691,7 +5695,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5706,13 +5710,13 @@
         <v>61</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
@@ -5720,11 +5724,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5746,13 +5750,13 @@
         <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5802,7 +5806,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5817,13 +5821,13 @@
         <v>61</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>40</v>
@@ -5831,7 +5835,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5857,10 +5861,10 @@
         <v>51</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5911,7 +5915,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5926,13 +5930,13 @@
         <v>61</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>40</v>
@@ -5940,7 +5944,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5966,10 +5970,10 @@
         <v>51</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6020,7 +6024,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6035,10 +6039,10 @@
         <v>61</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -6049,7 +6053,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6075,14 +6079,14 @@
         <v>174</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -6131,7 +6135,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6146,10 +6150,10 @@
         <v>61</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>180</v>
@@ -6160,7 +6164,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6183,17 +6187,17 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -6242,7 +6246,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6257,10 +6261,10 @@
         <v>61</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
@@ -6271,7 +6275,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6380,7 +6384,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6491,10 +6495,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>40</v>
@@ -6516,13 +6520,13 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6602,10 +6606,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>40</v>
@@ -6627,10 +6631,10 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>104</v>
@@ -6713,7 +6717,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6739,10 +6743,10 @@
         <v>69</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6772,10 +6776,10 @@
         <v>138</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>40</v>
@@ -6793,7 +6797,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6802,19 +6806,19 @@
         <v>49</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>40</v>
@@ -6822,7 +6826,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6848,16 +6852,16 @@
         <v>51</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -6906,7 +6910,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6921,10 +6925,10 @@
         <v>61</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>172</v>
@@ -6935,7 +6939,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6961,16 +6965,16 @@
         <v>69</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>40</v>
@@ -6998,10 +7002,10 @@
         <v>138</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>40</v>
@@ -7019,7 +7023,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7034,13 +7038,13 @@
         <v>61</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>40</v>
@@ -7048,7 +7052,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7071,16 +7075,16 @@
         <v>50</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7130,7 +7134,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7159,7 +7163,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7185,10 +7189,10 @@
         <v>174</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7239,7 +7243,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7257,7 +7261,7 @@
         <v>92</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>180</v>
@@ -7268,7 +7272,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7291,17 +7295,17 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -7350,7 +7354,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7365,10 +7369,10 @@
         <v>61</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
@@ -7379,7 +7383,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7402,17 +7406,17 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7461,7 +7465,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>

--- a/build/temp/pages/StructureDefinition-plannet-Network.xlsx
+++ b/build/temp/pages/StructureDefinition-plannet-Network.xlsx
@@ -3752,10 +3752,10 @@
         <v>196</v>
       </c>
       <c r="Q21" t="s" s="2">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>40</v>
